--- a/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122032a.xlsx
+++ b/analises_vitimizacao/dados_tratados/PNAD_2009/xlsx/tentativa/cv122032a.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="44">
   <si>
     <t>total(1)</t>
   </si>
@@ -22,7 +22,7 @@
     <t>classes de rendimento mensal domiciliar per capita (salário mínimo)</t>
   </si>
   <si>
-    <t>unnamed: 1_level_1</t>
+    <t>total</t>
   </si>
   <si>
     <t>menosde 1/4</t>
@@ -46,18 +46,12 @@
     <t xml:space="preserve">               brasil</t>
   </si>
   <si>
-    <t>situação do domicílio</t>
-  </si>
-  <si>
     <t>urbana</t>
   </si>
   <si>
     <t>rural</t>
   </si>
   <si>
-    <t>grandes regiões e unidades da federação</t>
-  </si>
-  <si>
     <t>norte</t>
   </si>
   <si>
@@ -152,9 +146,6 @@
   </si>
   <si>
     <t>distrito federal</t>
-  </si>
-  <si>
-    <t>fonte: ibge, diretoria de pesquisas, coordenação de trabalho e rendimento, pesquisa nacional por amostra de domicílios 2009.</t>
   </si>
 </sst>
 </file>
@@ -512,7 +503,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -586,6 +577,27 @@
       <c r="A5" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="B5">
+        <v>0</v>
+      </c>
+      <c r="C5">
+        <v>4.83</v>
+      </c>
+      <c r="D5">
+        <v>2.9</v>
+      </c>
+      <c r="E5">
+        <v>1.83</v>
+      </c>
+      <c r="F5">
+        <v>1.67</v>
+      </c>
+      <c r="G5">
+        <v>2.08</v>
+      </c>
+      <c r="H5">
+        <v>10.35</v>
+      </c>
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
@@ -595,22 +607,22 @@
         <v>0</v>
       </c>
       <c r="C6">
-        <v>4.83</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="D6">
-        <v>2.9</v>
+        <v>7.49</v>
       </c>
       <c r="E6">
-        <v>1.83</v>
+        <v>5.18</v>
       </c>
       <c r="F6">
-        <v>1.67</v>
+        <v>7</v>
       </c>
       <c r="G6">
-        <v>2.08</v>
+        <v>9.91</v>
       </c>
       <c r="H6">
-        <v>10.35</v>
+        <v>23.26</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -621,28 +633,49 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>9.630000000000001</v>
+        <v>10.02</v>
       </c>
       <c r="D7">
-        <v>7.49</v>
+        <v>4.79</v>
       </c>
       <c r="E7">
-        <v>5.18</v>
+        <v>3.28</v>
       </c>
       <c r="F7">
-        <v>7</v>
+        <v>4.12</v>
       </c>
       <c r="G7">
-        <v>9.91</v>
+        <v>5.65</v>
       </c>
       <c r="H7">
-        <v>23.26</v>
+        <v>23.78</v>
       </c>
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>29.19</v>
+      </c>
+      <c r="D8">
+        <v>15.25</v>
+      </c>
+      <c r="E8">
+        <v>7.76</v>
+      </c>
+      <c r="F8">
+        <v>8.59</v>
+      </c>
+      <c r="G8">
+        <v>15.23</v>
+      </c>
+      <c r="H8">
+        <v>43.14</v>
+      </c>
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
@@ -652,22 +685,22 @@
         <v>0</v>
       </c>
       <c r="C9">
-        <v>10.02</v>
+        <v>30.17</v>
       </c>
       <c r="D9">
-        <v>4.79</v>
+        <v>19.84</v>
       </c>
       <c r="E9">
-        <v>3.28</v>
+        <v>14.61</v>
       </c>
       <c r="F9">
-        <v>4.12</v>
+        <v>12.15</v>
       </c>
       <c r="G9">
-        <v>5.65</v>
+        <v>18.97</v>
       </c>
       <c r="H9">
-        <v>23.78</v>
+        <v>50.91</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -678,22 +711,22 @@
         <v>0</v>
       </c>
       <c r="C10">
-        <v>29.19</v>
+        <v>22.25</v>
       </c>
       <c r="D10">
-        <v>15.25</v>
+        <v>16.08</v>
       </c>
       <c r="E10">
-        <v>7.76</v>
+        <v>10.12</v>
       </c>
       <c r="F10">
-        <v>8.59</v>
+        <v>10.69</v>
       </c>
       <c r="G10">
-        <v>15.23</v>
+        <v>19.47</v>
       </c>
       <c r="H10">
-        <v>43.14</v>
+        <v>51.59</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -704,22 +737,22 @@
         <v>0</v>
       </c>
       <c r="C11">
-        <v>30.17</v>
+        <v>33.06</v>
       </c>
       <c r="D11">
-        <v>19.84</v>
+        <v>22.71</v>
       </c>
       <c r="E11">
-        <v>14.61</v>
+        <v>16.14</v>
       </c>
       <c r="F11">
-        <v>12.15</v>
+        <v>17.31</v>
       </c>
       <c r="G11">
-        <v>18.97</v>
+        <v>23.39</v>
       </c>
       <c r="H11">
-        <v>50.91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -730,22 +763,22 @@
         <v>0</v>
       </c>
       <c r="C12">
-        <v>22.25</v>
+        <v>13.31</v>
       </c>
       <c r="D12">
-        <v>16.08</v>
+        <v>5.98</v>
       </c>
       <c r="E12">
-        <v>10.12</v>
+        <v>4.36</v>
       </c>
       <c r="F12">
-        <v>10.69</v>
+        <v>6.2</v>
       </c>
       <c r="G12">
-        <v>19.47</v>
+        <v>8.48</v>
       </c>
       <c r="H12">
-        <v>51.59</v>
+        <v>38.46</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,22 +789,22 @@
         <v>0</v>
       </c>
       <c r="C13">
-        <v>33.06</v>
+        <v>39.95</v>
       </c>
       <c r="D13">
-        <v>22.71</v>
+        <v>19.5</v>
       </c>
       <c r="E13">
-        <v>16.14</v>
+        <v>11.72</v>
       </c>
       <c r="F13">
-        <v>17.31</v>
+        <v>17.02</v>
       </c>
       <c r="G13">
-        <v>23.39</v>
+        <v>20.8</v>
       </c>
       <c r="H13">
-        <v>93</v>
+        <v>71.26000000000001</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -782,22 +815,19 @@
         <v>0</v>
       </c>
       <c r="C14">
-        <v>13.31</v>
+        <v>18.57</v>
       </c>
       <c r="D14">
-        <v>5.98</v>
+        <v>19.2</v>
       </c>
       <c r="E14">
-        <v>4.36</v>
+        <v>14.34</v>
       </c>
       <c r="F14">
-        <v>6.2</v>
+        <v>8.9</v>
       </c>
       <c r="G14">
-        <v>8.48</v>
-      </c>
-      <c r="H14">
-        <v>38.46</v>
+        <v>11.35</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -808,22 +838,22 @@
         <v>0</v>
       </c>
       <c r="C15">
-        <v>39.95</v>
+        <v>5.69</v>
       </c>
       <c r="D15">
-        <v>19.5</v>
+        <v>3.86</v>
       </c>
       <c r="E15">
-        <v>11.72</v>
+        <v>2.8</v>
       </c>
       <c r="F15">
-        <v>17.02</v>
+        <v>3.36</v>
       </c>
       <c r="G15">
-        <v>20.8</v>
+        <v>4.96</v>
       </c>
       <c r="H15">
-        <v>71.26000000000001</v>
+        <v>14.91</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -834,19 +864,22 @@
         <v>0</v>
       </c>
       <c r="C16">
-        <v>18.57</v>
+        <v>23.56</v>
       </c>
       <c r="D16">
-        <v>19.2</v>
+        <v>16.11</v>
       </c>
       <c r="E16">
-        <v>14.34</v>
+        <v>11.1</v>
       </c>
       <c r="F16">
-        <v>8.9</v>
+        <v>12.4</v>
       </c>
       <c r="G16">
-        <v>11.35</v>
+        <v>19.59</v>
+      </c>
+      <c r="H16">
+        <v>35.83</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -857,22 +890,22 @@
         <v>0</v>
       </c>
       <c r="C17">
-        <v>5.69</v>
+        <v>27.82</v>
       </c>
       <c r="D17">
-        <v>3.86</v>
+        <v>26.92</v>
       </c>
       <c r="E17">
-        <v>2.8</v>
+        <v>13.02</v>
       </c>
       <c r="F17">
-        <v>3.36</v>
+        <v>11.41</v>
       </c>
       <c r="G17">
-        <v>4.96</v>
+        <v>26.71</v>
       </c>
       <c r="H17">
-        <v>14.91</v>
+        <v>100.59</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -883,22 +916,22 @@
         <v>0</v>
       </c>
       <c r="C18">
-        <v>23.56</v>
+        <v>9.9</v>
       </c>
       <c r="D18">
-        <v>16.11</v>
+        <v>6.37</v>
       </c>
       <c r="E18">
-        <v>11.1</v>
+        <v>5.03</v>
       </c>
       <c r="F18">
-        <v>12.4</v>
+        <v>6.66</v>
       </c>
       <c r="G18">
-        <v>19.59</v>
+        <v>9.33</v>
       </c>
       <c r="H18">
-        <v>35.83</v>
+        <v>45.81</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -909,22 +942,22 @@
         <v>0</v>
       </c>
       <c r="C19">
-        <v>27.82</v>
+        <v>29.21</v>
       </c>
       <c r="D19">
-        <v>26.92</v>
+        <v>17.8</v>
       </c>
       <c r="E19">
-        <v>13.02</v>
+        <v>11.22</v>
       </c>
       <c r="F19">
-        <v>11.41</v>
+        <v>14.56</v>
       </c>
       <c r="G19">
-        <v>26.71</v>
+        <v>19.1</v>
       </c>
       <c r="H19">
-        <v>100.59</v>
+        <v>58.08</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -935,22 +968,22 @@
         <v>0</v>
       </c>
       <c r="C20">
-        <v>9.9</v>
+        <v>19.5</v>
       </c>
       <c r="D20">
-        <v>6.37</v>
+        <v>14.65</v>
       </c>
       <c r="E20">
-        <v>5.03</v>
+        <v>13.39</v>
       </c>
       <c r="F20">
-        <v>6.66</v>
+        <v>14.09</v>
       </c>
       <c r="G20">
-        <v>9.33</v>
+        <v>29.41</v>
       </c>
       <c r="H20">
-        <v>45.81</v>
+        <v>69.70999999999999</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -961,22 +994,22 @@
         <v>0</v>
       </c>
       <c r="C21">
-        <v>29.21</v>
+        <v>10.97</v>
       </c>
       <c r="D21">
-        <v>17.8</v>
+        <v>7.74</v>
       </c>
       <c r="E21">
-        <v>11.22</v>
+        <v>7.05</v>
       </c>
       <c r="F21">
-        <v>14.56</v>
+        <v>7.38</v>
       </c>
       <c r="G21">
-        <v>19.1</v>
+        <v>10.84</v>
       </c>
       <c r="H21">
-        <v>58.08</v>
+        <v>27.84</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -987,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="C22">
-        <v>19.5</v>
+        <v>28.85</v>
       </c>
       <c r="D22">
-        <v>14.65</v>
+        <v>16.76</v>
       </c>
       <c r="E22">
-        <v>13.39</v>
+        <v>16.72</v>
       </c>
       <c r="F22">
-        <v>14.09</v>
+        <v>20.14</v>
       </c>
       <c r="G22">
-        <v>29.41</v>
+        <v>27.02</v>
       </c>
       <c r="H22">
-        <v>69.70999999999999</v>
+        <v>55.11</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -1013,22 +1046,22 @@
         <v>0</v>
       </c>
       <c r="C23">
-        <v>10.97</v>
+        <v>25.61</v>
       </c>
       <c r="D23">
-        <v>7.74</v>
+        <v>10.6</v>
       </c>
       <c r="E23">
-        <v>7.05</v>
+        <v>7.55</v>
       </c>
       <c r="F23">
-        <v>7.38</v>
+        <v>12.75</v>
       </c>
       <c r="G23">
-        <v>10.84</v>
+        <v>21.07</v>
       </c>
       <c r="H23">
-        <v>27.84</v>
+        <v>98.25</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1039,22 +1072,22 @@
         <v>0</v>
       </c>
       <c r="C24">
-        <v>28.85</v>
+        <v>11.13</v>
       </c>
       <c r="D24">
-        <v>16.76</v>
+        <v>7.37</v>
       </c>
       <c r="E24">
-        <v>16.72</v>
+        <v>5.61</v>
       </c>
       <c r="F24">
-        <v>20.14</v>
+        <v>6.19</v>
       </c>
       <c r="G24">
-        <v>27.02</v>
+        <v>8.16</v>
       </c>
       <c r="H24">
-        <v>55.11</v>
+        <v>28.29</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1065,22 +1098,22 @@
         <v>0</v>
       </c>
       <c r="C25">
-        <v>25.61</v>
+        <v>12.19</v>
       </c>
       <c r="D25">
-        <v>10.6</v>
+        <v>6.26</v>
       </c>
       <c r="E25">
-        <v>7.55</v>
+        <v>3.66</v>
       </c>
       <c r="F25">
-        <v>12.75</v>
+        <v>2.86</v>
       </c>
       <c r="G25">
-        <v>21.07</v>
+        <v>2.94</v>
       </c>
       <c r="H25">
-        <v>98.25</v>
+        <v>18.81</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1091,22 +1124,22 @@
         <v>0</v>
       </c>
       <c r="C26">
-        <v>11.13</v>
+        <v>20.74</v>
       </c>
       <c r="D26">
-        <v>7.37</v>
+        <v>9.23</v>
       </c>
       <c r="E26">
-        <v>5.61</v>
+        <v>5.7</v>
       </c>
       <c r="F26">
-        <v>6.19</v>
+        <v>4.88</v>
       </c>
       <c r="G26">
-        <v>8.16</v>
+        <v>5.94</v>
       </c>
       <c r="H26">
-        <v>28.29</v>
+        <v>37.41</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1117,22 +1150,22 @@
         <v>0</v>
       </c>
       <c r="C27">
-        <v>12.19</v>
+        <v>30.98</v>
       </c>
       <c r="D27">
-        <v>6.26</v>
+        <v>19.21</v>
       </c>
       <c r="E27">
-        <v>3.66</v>
+        <v>15.02</v>
       </c>
       <c r="F27">
-        <v>2.86</v>
+        <v>10.05</v>
       </c>
       <c r="G27">
-        <v>2.94</v>
+        <v>12.01</v>
       </c>
       <c r="H27">
-        <v>18.81</v>
+        <v>71.66</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1143,22 +1176,22 @@
         <v>0</v>
       </c>
       <c r="C28">
-        <v>20.74</v>
+        <v>28.17</v>
       </c>
       <c r="D28">
-        <v>9.23</v>
+        <v>13.38</v>
       </c>
       <c r="E28">
-        <v>5.7</v>
+        <v>6.88</v>
       </c>
       <c r="F28">
-        <v>4.88</v>
+        <v>6.24</v>
       </c>
       <c r="G28">
-        <v>5.94</v>
+        <v>5.68</v>
       </c>
       <c r="H28">
-        <v>37.41</v>
+        <v>34.83</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1169,22 +1202,22 @@
         <v>0</v>
       </c>
       <c r="C29">
-        <v>30.98</v>
+        <v>18.48</v>
       </c>
       <c r="D29">
-        <v>19.21</v>
+        <v>10.16</v>
       </c>
       <c r="E29">
-        <v>15.02</v>
+        <v>5.84</v>
       </c>
       <c r="F29">
-        <v>10.05</v>
+        <v>4.08</v>
       </c>
       <c r="G29">
-        <v>12.01</v>
+        <v>4.05</v>
       </c>
       <c r="H29">
-        <v>71.66</v>
+        <v>27.55</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1195,22 +1228,22 @@
         <v>0</v>
       </c>
       <c r="C30">
-        <v>28.17</v>
+        <v>15.32</v>
       </c>
       <c r="D30">
-        <v>13.38</v>
+        <v>9.34</v>
       </c>
       <c r="E30">
-        <v>6.88</v>
+        <v>4.55</v>
       </c>
       <c r="F30">
-        <v>6.24</v>
+        <v>3.18</v>
       </c>
       <c r="G30">
-        <v>5.68</v>
+        <v>3.8</v>
       </c>
       <c r="H30">
-        <v>34.83</v>
+        <v>24.47</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1221,22 +1254,22 @@
         <v>0</v>
       </c>
       <c r="C31">
-        <v>18.48</v>
+        <v>25.75</v>
       </c>
       <c r="D31">
-        <v>10.16</v>
+        <v>14.7</v>
       </c>
       <c r="E31">
-        <v>5.84</v>
+        <v>6.93</v>
       </c>
       <c r="F31">
-        <v>4.08</v>
+        <v>5.37</v>
       </c>
       <c r="G31">
-        <v>4.05</v>
+        <v>5.9</v>
       </c>
       <c r="H31">
-        <v>27.55</v>
+        <v>36.8</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1247,22 +1280,22 @@
         <v>0</v>
       </c>
       <c r="C32">
-        <v>15.32</v>
+        <v>49.91</v>
       </c>
       <c r="D32">
-        <v>9.34</v>
+        <v>32.93</v>
       </c>
       <c r="E32">
-        <v>4.55</v>
+        <v>10.56</v>
       </c>
       <c r="F32">
-        <v>3.18</v>
+        <v>6.7</v>
       </c>
       <c r="G32">
-        <v>3.8</v>
+        <v>7.76</v>
       </c>
       <c r="H32">
-        <v>24.47</v>
+        <v>66.14</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1273,22 +1306,22 @@
         <v>0</v>
       </c>
       <c r="C33">
-        <v>25.75</v>
+        <v>19.77</v>
       </c>
       <c r="D33">
-        <v>14.7</v>
+        <v>11.7</v>
       </c>
       <c r="E33">
-        <v>6.93</v>
+        <v>7.2</v>
       </c>
       <c r="F33">
-        <v>5.37</v>
+        <v>4.38</v>
       </c>
       <c r="G33">
-        <v>5.9</v>
+        <v>5.85</v>
       </c>
       <c r="H33">
-        <v>36.8</v>
+        <v>35.23</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1299,22 +1332,22 @@
         <v>0</v>
       </c>
       <c r="C34">
-        <v>49.91</v>
+        <v>15.24</v>
       </c>
       <c r="D34">
-        <v>32.93</v>
+        <v>7.23</v>
       </c>
       <c r="E34">
-        <v>10.56</v>
+        <v>4.26</v>
       </c>
       <c r="F34">
-        <v>6.7</v>
+        <v>3.85</v>
       </c>
       <c r="G34">
-        <v>7.76</v>
+        <v>5.28</v>
       </c>
       <c r="H34">
-        <v>66.14</v>
+        <v>22.99</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1325,22 +1358,22 @@
         <v>0</v>
       </c>
       <c r="C35">
-        <v>19.77</v>
+        <v>36.82</v>
       </c>
       <c r="D35">
-        <v>11.7</v>
+        <v>20.19</v>
       </c>
       <c r="E35">
-        <v>7.2</v>
+        <v>9.43</v>
       </c>
       <c r="F35">
-        <v>4.38</v>
+        <v>8.720000000000001</v>
       </c>
       <c r="G35">
-        <v>5.85</v>
+        <v>12.18</v>
       </c>
       <c r="H35">
-        <v>35.23</v>
+        <v>67.02</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1351,22 +1384,22 @@
         <v>0</v>
       </c>
       <c r="C36">
-        <v>15.24</v>
+        <v>35.03</v>
       </c>
       <c r="D36">
-        <v>7.23</v>
+        <v>20.76</v>
       </c>
       <c r="E36">
-        <v>4.26</v>
+        <v>9.73</v>
       </c>
       <c r="F36">
-        <v>3.85</v>
+        <v>8.470000000000001</v>
       </c>
       <c r="G36">
-        <v>5.28</v>
+        <v>12.42</v>
       </c>
       <c r="H36">
-        <v>22.99</v>
+        <v>60.09</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1377,22 +1410,22 @@
         <v>0</v>
       </c>
       <c r="C37">
-        <v>36.82</v>
+        <v>21.56</v>
       </c>
       <c r="D37">
-        <v>20.19</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="E37">
-        <v>9.43</v>
+        <v>6.32</v>
       </c>
       <c r="F37">
-        <v>8.720000000000001</v>
+        <v>5.82</v>
       </c>
       <c r="G37">
-        <v>12.18</v>
+        <v>9.35</v>
       </c>
       <c r="H37">
-        <v>67.02</v>
+        <v>35.94</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1403,79 +1436,22 @@
         <v>0</v>
       </c>
       <c r="C38">
-        <v>35.03</v>
+        <v>27.22</v>
       </c>
       <c r="D38">
-        <v>20.76</v>
+        <v>15.77</v>
       </c>
       <c r="E38">
-        <v>9.73</v>
+        <v>9.640000000000001</v>
       </c>
       <c r="F38">
-        <v>8.470000000000001</v>
+        <v>8.210000000000001</v>
       </c>
       <c r="G38">
-        <v>12.42</v>
+        <v>7.53</v>
       </c>
       <c r="H38">
-        <v>60.09</v>
-      </c>
-    </row>
-    <row r="39" spans="1:8">
-      <c r="A39" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="B39">
-        <v>0</v>
-      </c>
-      <c r="C39">
-        <v>21.56</v>
-      </c>
-      <c r="D39">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="E39">
-        <v>6.32</v>
-      </c>
-      <c r="F39">
-        <v>5.82</v>
-      </c>
-      <c r="G39">
-        <v>9.35</v>
-      </c>
-      <c r="H39">
-        <v>35.94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:8">
-      <c r="A40" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B40">
-        <v>0</v>
-      </c>
-      <c r="C40">
-        <v>27.22</v>
-      </c>
-      <c r="D40">
-        <v>15.77</v>
-      </c>
-      <c r="E40">
-        <v>9.640000000000001</v>
-      </c>
-      <c r="F40">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G40">
-        <v>7.53</v>
-      </c>
-      <c r="H40">
         <v>35.87</v>
-      </c>
-    </row>
-    <row r="41" spans="1:8">
-      <c r="A41" s="1" t="s">
-        <v>46</v>
       </c>
     </row>
   </sheetData>
